--- a/Data/Calibration/Plots_CAL.xlsx
+++ b/Data/Calibration/Plots_CAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D936138-859C-4D85-8C60-36D02F5A7660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C9EF5-1150-44AD-8E4B-14A91795E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>V_in</t>
   </si>
@@ -63,12 +63,18 @@
   <si>
     <t>Sl No</t>
   </si>
+  <si>
+    <t>V_in (V)</t>
+  </si>
+  <si>
+    <t>V_out (V)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +93,14 @@
       <color theme="1"/>
       <name val="CMU Bright"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -167,11 +181,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,16 +219,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +234,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +276,88 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Bright"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Bright"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -264,7 +404,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -287,7 +429,9 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -297,6 +441,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -312,6 +463,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -358,9 +516,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -434,104 +590,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -2059,33 +2117,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43EEE3AD-C367-4A26-B959-FBE92AF8AAD9}" name="CAL_1000" displayName="CAL_1000" ref="I5:J12" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43EEE3AD-C367-4A26-B959-FBE92AF8AAD9}" name="CAL_1000" displayName="CAL_1000" ref="I5:J12" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="I5:J12" xr:uid="{43EEE3AD-C367-4A26-B959-FBE92AF8AAD9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D9980316-DAAB-4BF6-BB87-5B20A143391B}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E41FC809-8BC2-4E9A-9E5C-B9422B0E2E37}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{D9980316-DAAB-4BF6-BB87-5B20A143391B}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E41FC809-8BC2-4E9A-9E5C-B9422B0E2E37}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="13" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}" name="CAL_2000" displayName="CAL_2000" ref="K5:L13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}" name="CAL_2000" displayName="CAL_2000" ref="K5:L13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="K5:L13" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8FA1CE2A-49EA-4698-9805-C5388529CAE8}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FC83C6A7-6A1D-4E2E-ABA2-0386352D12CF}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8FA1CE2A-49EA-4698-9805-C5388529CAE8}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FC83C6A7-6A1D-4E2E-ABA2-0386352D12CF}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}" name="CAL_500" displayName="CAL_500" ref="G5:H13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}" name="CAL_500" displayName="CAL_500" ref="G5:H13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="G5:H13" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{35E71496-F26A-40E6-9A1F-81502134CA94}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A9EAE382-F790-42E6-9D7D-FD5A14B33D06}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{35E71496-F26A-40E6-9A1F-81502134CA94}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A9EAE382-F790-42E6-9D7D-FD5A14B33D06}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2354,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:L15"/>
+  <dimension ref="C4:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,245 +2423,449 @@
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
+    <row r="4" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
+    <row r="5" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="10"/>
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="N5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="17"/>
     </row>
-    <row r="6" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F6" s="7">
+    <row r="6" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>1.7182018457246043E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>1.2033725309551764</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>1.1033876077651942E-4</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>0.3799863030640504</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>5.2844711937590078E-3</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>0.71320203923988879</v>
       </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F7" s="7">
+    <row r="7" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>2.3065578156808694E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>1.4923256732515231</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>1.5671727327996526E-2</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>1.1493968094837272</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>1.3987164629220922E-2</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>1.047709881373095</v>
       </c>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13">
+        <v>1.7182018457246043E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1.2033725309551764</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1.1033876077651942E-4</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.3799863030640504</v>
+      </c>
+      <c r="S7" s="13">
+        <v>5.2844711937590078E-3</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0.71320203923988879</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F8" s="7">
+    <row r="8" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>2.5554895825959011E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>1.978069123558196</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>2.3028787664347638E-2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <v>1.5287404988412789</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>2.3391511421429985E-2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>1.4794918733766789</v>
       </c>
+      <c r="N8" s="13">
+        <v>2</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2.3065578156808694E-2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1.4923256732515231</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>1.5671727327996526E-2</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1.1493968094837272</v>
+      </c>
+      <c r="S8" s="13">
+        <v>1.3987164629220922E-2</v>
+      </c>
+      <c r="T8" s="13">
+        <v>1.047709881373095</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="7">
+    <row r="9" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F9" s="5">
         <v>4</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>2.6813747210930241E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>2.3873357428684603</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>2.5688889474223681E-2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <v>2.047703760373691</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>2.5175564678072436E-2</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>1.8287561367486018</v>
       </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2.5554895825959011E-2</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1.978069123558196</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>2.3028787664347638E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <v>1.5287404988412789</v>
+      </c>
+      <c r="S9" s="13">
+        <v>2.3391511421429985E-2</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1.4794918733766789</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F10" s="7">
+    <row r="10" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>2.7089011663223889E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>2.6361368961125544</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>2.7003734053820078E-2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="8">
         <v>2.6417694985888356</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>2.6062812774160601E-2</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>2.016311598514958</v>
       </c>
+      <c r="N10" s="13">
+        <v>4</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2.6813747210930241E-2</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2.3873357428684603</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>2.5688889474223681E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>2.047703760373691</v>
+      </c>
+      <c r="S10" s="13">
+        <v>2.5175564678072436E-2</v>
+      </c>
+      <c r="T10" s="13">
+        <v>1.8287561367486018</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F11" s="7">
+    <row r="11" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F11" s="5">
         <v>6</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>3.3221257722986688E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>3.0313358447712067</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>3.3090749809083442E-2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <v>3.0394325452683515</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>2.7024287190209027E-2</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>2.4755426707602863</v>
       </c>
+      <c r="N11" s="13">
+        <v>5</v>
+      </c>
+      <c r="O11" s="13">
+        <v>2.7089011663223889E-2</v>
+      </c>
+      <c r="P11" s="13">
+        <v>2.6361368961125544</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>2.7003734053820078E-2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>2.6417694985888356</v>
+      </c>
+      <c r="S11" s="13">
+        <v>2.6062812774160601E-2</v>
+      </c>
+      <c r="T11" s="13">
+        <v>2.016311598514958</v>
+      </c>
     </row>
-    <row r="12" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F12" s="7">
+    <row r="12" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F12" s="5">
         <v>7</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>3.5821276098971538E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>3.1539573155026517</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>3.7057903425073743E-2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>3.451293706319694</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>3.3044767925698451E-2</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>2.9740945307753939</v>
       </c>
+      <c r="N12" s="13">
+        <v>6</v>
+      </c>
+      <c r="O12" s="13">
+        <v>3.3221257722986688E-2</v>
+      </c>
+      <c r="P12" s="13">
+        <v>3.0313358447712067</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>3.3090749809083442E-2</v>
+      </c>
+      <c r="R12" s="13">
+        <v>3.0394325452683515</v>
+      </c>
+      <c r="S12" s="13">
+        <v>2.7024287190209027E-2</v>
+      </c>
+      <c r="T12" s="13">
+        <v>2.4755426707602863</v>
+      </c>
     </row>
-    <row r="13" spans="3:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F13" s="7">
+    <row r="13" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F13" s="5">
         <v>8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>3.7135761132477414E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>3.4849867889604962</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="11">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="9">
         <v>3.9064961092964923E-2</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>3.5118581172042758</v>
       </c>
+      <c r="N13" s="13">
+        <v>7</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3.5821276098971538E-2</v>
+      </c>
+      <c r="P13" s="13">
+        <v>3.1539573155026517</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>3.7057903425073743E-2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>3.451293706319694</v>
+      </c>
+      <c r="S13" s="13">
+        <v>3.3044767925698451E-2</v>
+      </c>
+      <c r="T13" s="13">
+        <v>2.9740945307753939</v>
+      </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14"/>
       <c r="D14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
+      <c r="N14" s="13">
+        <v>8</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3.7135761132477414E-2</v>
+      </c>
+      <c r="P14" s="13">
+        <v>3.4849867889604962</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13">
+        <v>3.9064961092964923E-2</v>
+      </c>
+      <c r="T14" s="13">
+        <v>3.5118581172042758</v>
+      </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15"/>
       <c r="D15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data/Calibration/Plots_CAL.xlsx
+++ b/Data/Calibration/Plots_CAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C9EF5-1150-44AD-8E4B-14A91795E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29422B08-1712-45C0-9770-7889CCEE116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,23 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$I$5:$J$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$I$5:$J$11</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$K$5:$L$13</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$G$5:$H$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>V_in</t>
   </si>
@@ -69,12 +78,33 @@
   <si>
     <t>V_out (V)</t>
   </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <r>
+      <t>Slope/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+  </si>
+  <si>
+    <t>Frequency (Hz)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +130,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,16 +292,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,10 +316,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,8 +717,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20644789867587798"/>
-          <c:y val="2.1947870638904819E-2"/>
+          <c:x val="0.19170489624131207"/>
+          <c:y val="3.7626993175734702E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -689,8 +756,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10760642361111111"/>
           <c:y val="0.15494783950617283"/>
-          <c:w val="0.65719207412775482"/>
-          <c:h val="0.67795987654320988"/>
+          <c:w val="0.82780720210015413"/>
+          <c:h val="0.71307279578633509"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -741,41 +808,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.25585468975860426"/>
-                  <c:y val="0.36224475308641974"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="0070C0"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -895,45 +929,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.27793486658744498"/>
-                  <c:y val="0.45568240740740734"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$12</c:f>
+              <c:f>Sheet1!$I$6:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -960,7 +961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$12</c:f>
+              <c:f>Sheet1!$J$6:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1039,48 +1040,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20339156814755655"/>
-                  <c:y val="0.54748611111111112"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$K$13</c:f>
+              <c:f>Sheet1!$K$6:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.3987164629220922E-2</c:v>
                 </c:pt>
@@ -1098,19 +1066,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.3044767925698451E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9064961092964923E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$7:$L$13</c:f>
+              <c:f>Sheet1!$L$6:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.047709881373095</c:v>
                 </c:pt>
@@ -1128,9 +1093,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.9740945307753939</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5118581172042758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,8 +1372,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76389410985076012"/>
-          <c:y val="0.15267006172839509"/>
+          <c:x val="0.11291304162266362"/>
+          <c:y val="0.16447831478360964"/>
           <c:w val="0.19553728424411765"/>
           <c:h val="0.39687777777777777"/>
         </c:manualLayout>
@@ -2046,16 +2008,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>245164</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106637</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475445</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>37721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>646044</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>108137</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2412,16 +2374,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:T15"/>
+  <dimension ref="C4:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="1"/>
     <col min="15" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -2429,24 +2393,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2465,21 +2429,21 @@
       <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="13"/>
     </row>
     <row r="6" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F6" s="5">
@@ -2492,34 +2456,34 @@
         <v>1.2033725309551764</v>
       </c>
       <c r="I6" s="5">
-        <v>1.1033876077651942E-4</v>
+        <v>1.5671727327996526E-2</v>
       </c>
       <c r="J6" s="8">
-        <v>0.3799863030640504</v>
+        <v>1.1493968094837272</v>
       </c>
       <c r="K6" s="9">
-        <v>5.2844711937590078E-3</v>
+        <v>1.3987164629220922E-2</v>
       </c>
       <c r="L6" s="9">
-        <v>0.71320203923988879</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="12" t="s">
+        <v>1.047709881373095</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2534,36 +2498,36 @@
         <v>1.4923256732515231</v>
       </c>
       <c r="I7" s="5">
-        <v>1.5671727327996526E-2</v>
+        <v>2.3028787664347638E-2</v>
       </c>
       <c r="J7" s="8">
-        <v>1.1493968094837272</v>
+        <v>1.5287404988412789</v>
       </c>
       <c r="K7" s="9">
-        <v>1.3987164629220922E-2</v>
+        <v>2.3391511421429985E-2</v>
       </c>
       <c r="L7" s="9">
-        <v>1.047709881373095</v>
-      </c>
-      <c r="N7" s="13">
+        <v>1.4794918733766789</v>
+      </c>
+      <c r="N7" s="11">
         <v>1</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>1.7182018457246043E-2</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <v>1.2033725309551764</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>1.1033876077651942E-4</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="11">
         <v>0.3799863030640504</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="11">
         <v>5.2844711937590078E-3</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="11">
         <v>0.71320203923988879</v>
       </c>
     </row>
@@ -2578,36 +2542,36 @@
         <v>1.978069123558196</v>
       </c>
       <c r="I8" s="5">
-        <v>2.3028787664347638E-2</v>
+        <v>2.5688889474223681E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>1.5287404988412789</v>
+        <v>2.047703760373691</v>
       </c>
       <c r="K8" s="9">
-        <v>2.3391511421429985E-2</v>
+        <v>2.5175564678072436E-2</v>
       </c>
       <c r="L8" s="9">
-        <v>1.4794918733766789</v>
-      </c>
-      <c r="N8" s="13">
+        <v>1.8287561367486018</v>
+      </c>
+      <c r="N8" s="11">
         <v>2</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>2.3065578156808694E-2</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <v>1.4923256732515231</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>1.5671727327996526E-2</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="11">
         <v>1.1493968094837272</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="11">
         <v>1.3987164629220922E-2</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="11">
         <v>1.047709881373095</v>
       </c>
     </row>
@@ -2622,36 +2586,36 @@
         <v>2.3873357428684603</v>
       </c>
       <c r="I9" s="5">
-        <v>2.5688889474223681E-2</v>
+        <v>2.7003734053820078E-2</v>
       </c>
       <c r="J9" s="8">
-        <v>2.047703760373691</v>
+        <v>2.6417694985888356</v>
       </c>
       <c r="K9" s="9">
-        <v>2.5175564678072436E-2</v>
+        <v>2.6062812774160601E-2</v>
       </c>
       <c r="L9" s="9">
-        <v>1.8287561367486018</v>
-      </c>
-      <c r="N9" s="13">
+        <v>2.016311598514958</v>
+      </c>
+      <c r="N9" s="11">
         <v>3</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>2.5554895825959011E-2</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <v>1.978069123558196</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>2.3028787664347638E-2</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="11">
         <v>1.5287404988412789</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="11">
         <v>2.3391511421429985E-2</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="11">
         <v>1.4794918733766789</v>
       </c>
     </row>
@@ -2666,36 +2630,36 @@
         <v>2.6361368961125544</v>
       </c>
       <c r="I10" s="5">
-        <v>2.7003734053820078E-2</v>
+        <v>3.3090749809083442E-2</v>
       </c>
       <c r="J10" s="8">
-        <v>2.6417694985888356</v>
+        <v>3.0394325452683515</v>
       </c>
       <c r="K10" s="9">
-        <v>2.6062812774160601E-2</v>
+        <v>2.7024287190209027E-2</v>
       </c>
       <c r="L10" s="9">
-        <v>2.016311598514958</v>
-      </c>
-      <c r="N10" s="13">
+        <v>2.4755426707602863</v>
+      </c>
+      <c r="N10" s="11">
         <v>4</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>2.6813747210930241E-2</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>2.3873357428684603</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>2.5688889474223681E-2</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="11">
         <v>2.047703760373691</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="11">
         <v>2.5175564678072436E-2</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="11">
         <v>1.8287561367486018</v>
       </c>
     </row>
@@ -2710,36 +2674,36 @@
         <v>3.0313358447712067</v>
       </c>
       <c r="I11" s="5">
-        <v>3.3090749809083442E-2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>3.0394325452683515</v>
+        <v>3.7057903425073743E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.451293706319694</v>
       </c>
       <c r="K11" s="9">
-        <v>2.7024287190209027E-2</v>
+        <v>3.3044767925698451E-2</v>
       </c>
       <c r="L11" s="9">
-        <v>2.4755426707602863</v>
-      </c>
-      <c r="N11" s="13">
+        <v>2.9740945307753939</v>
+      </c>
+      <c r="N11" s="11">
         <v>5</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>2.7089011663223889E-2</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>2.6361368961125544</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>2.7003734053820078E-2</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="11">
         <v>2.6417694985888356</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <v>2.6062812774160601E-2</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="11">
         <v>2.016311598514958</v>
       </c>
     </row>
@@ -2753,37 +2717,31 @@
       <c r="H12" s="7">
         <v>3.1539573155026517</v>
       </c>
-      <c r="I12" s="5">
-        <v>3.7057903425073743E-2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3.451293706319694</v>
-      </c>
       <c r="K12" s="9">
-        <v>3.3044767925698451E-2</v>
+        <v>3.9064961092964923E-2</v>
       </c>
       <c r="L12" s="9">
-        <v>2.9740945307753939</v>
-      </c>
-      <c r="N12" s="13">
+        <v>3.5118581172042758</v>
+      </c>
+      <c r="N12" s="11">
         <v>6</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>3.3221257722986688E-2</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <v>3.0313358447712067</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>3.3090749809083442E-2</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="11">
         <v>3.0394325452683515</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="11">
         <v>2.7024287190209027E-2</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="11">
         <v>2.4755426707602863</v>
       </c>
     </row>
@@ -2799,31 +2757,27 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="9">
-        <v>3.9064961092964923E-2</v>
-      </c>
-      <c r="L13" s="9">
-        <v>3.5118581172042758</v>
-      </c>
-      <c r="N13" s="13">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="N13" s="11">
         <v>7</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>3.5821276098971538E-2</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>3.1539573155026517</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>3.7057903425073743E-2</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="11">
         <v>3.451293706319694</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <v>3.3044767925698451E-2</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="11">
         <v>2.9740945307753939</v>
       </c>
     </row>
@@ -2834,21 +2788,21 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="N14" s="13">
+      <c r="N14" s="11">
         <v>8</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <v>3.7135761132477414E-2</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <v>3.4849867889604962</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11">
         <v>3.9064961092964923E-2</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="11">
         <v>3.5118581172042758</v>
       </c>
     </row>
@@ -2856,16 +2810,119 @@
       <c r="C15"/>
       <c r="D15"/>
     </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="18">
+        <f t="array" ref="D17:E18">LINEST(H6:H13,G6:G13,1,1)</f>
+        <v>116.24998443933214</v>
+      </c>
+      <c r="E17" s="18">
+        <v>-0.86142985285575602</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="array" ref="G17:H18">LINEST(J6:J11,I6:I11,1,1)</f>
+        <v>114.47915889489911</v>
+      </c>
+      <c r="H17" s="19">
+        <v>-0.77247193792661584</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="array" ref="J17:K18">LINEST(L6:L12,K6:K12,1,1)</f>
+        <v>105.70336148604763</v>
+      </c>
+      <c r="K17" s="20">
+        <v>-0.64459348319723109</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="18">
+        <v>12.308630492602019</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.3561792997931163</v>
+      </c>
+      <c r="G18" s="19">
+        <v>14.784326747720636</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.41084004206817021</v>
+      </c>
+      <c r="J18" s="20">
+        <v>12.703203595436261</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0.35296436537289072</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="10">
+        <v>500</v>
+      </c>
+      <c r="E23" s="11">
+        <f>D17</f>
+        <v>116.24998443933214</v>
+      </c>
+      <c r="F23" s="11">
+        <f>D18</f>
+        <v>12.308630492602019</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="11">
+        <f>G17</f>
+        <v>114.47915889489911</v>
+      </c>
+      <c r="F24" s="11">
+        <f>G18</f>
+        <v>14.784326747720636</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="11">
+        <f>J17</f>
+        <v>105.70336148604763</v>
+      </c>
+      <c r="F25" s="11">
+        <f>J18</f>
+        <v>12.703203595436261</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f>AVERAGE(E23:E25)</f>
+        <v>112.1441682734263</v>
+      </c>
+      <c r="F26" s="1">
+        <f>AVERAGE(F23:F25)</f>
+        <v>13.26538694525297</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data/Calibration/Plots_CAL.xlsx
+++ b/Data/Calibration/Plots_CAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29422B08-1712-45C0-9770-7889CCEE116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26B5B59-7450-4646-A112-88F24FF74B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$G$5:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>V_in</t>
   </si>
@@ -98,6 +99,9 @@
   </si>
   <si>
     <t>Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -269,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,24 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,11 +311,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="13">
     <dxf>
       <font>
         <strike val="0"/>
@@ -545,99 +552,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2046,7 +1960,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{E04B3E62-E61A-490D-8FAC-83258E1B0FFF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{ACD4C76B-EA25-4F64-B479-06185F90C98D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="V_in" tableColumnId="1"/>
@@ -2057,17 +1971,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{ACD4C76B-EA25-4F64-B479-06185F90C98D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
-      <queryTableField id="1" name="V_in" tableColumnId="1"/>
-      <queryTableField id="2" name="V_out" tableColumnId="2"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="3" xr16:uid="{0178E88C-BEF8-428F-8407-925CA67674E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
@@ -2079,17 +1982,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43EEE3AD-C367-4A26-B959-FBE92AF8AAD9}" name="CAL_1000" displayName="CAL_1000" ref="I5:J12" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="I5:J12" xr:uid="{43EEE3AD-C367-4A26-B959-FBE92AF8AAD9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D9980316-DAAB-4BF6-BB87-5B20A143391B}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E41FC809-8BC2-4E9A-9E5C-B9422B0E2E37}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="13" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}" name="CAL_2000" displayName="CAL_2000" ref="K5:L13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="K5:L13" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}"/>
   <tableColumns count="2">
@@ -2100,7 +1992,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}" name="CAL_500" displayName="CAL_500" ref="G5:H13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="G5:H13" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}"/>
   <tableColumns count="2">
@@ -2376,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,24 +2285,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="14"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2429,21 +2321,21 @@
       <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="12" t="s">
+      <c r="R5" s="20"/>
+      <c r="S5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="13"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F6" s="5">
@@ -2467,7 +2359,7 @@
       <c r="L6" s="9">
         <v>1.047709881373095</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="10" t="s">
         <v>6</v>
       </c>
@@ -2811,45 +2703,45 @@
       <c r="D15"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <f t="array" ref="D17:E18">LINEST(H6:H13,G6:G13,1,1)</f>
         <v>116.24998443933214</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="12">
         <v>-0.86142985285575602</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="13">
         <f t="array" ref="G17:H18">LINEST(J6:J11,I6:I11,1,1)</f>
         <v>114.47915889489911</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="13">
         <v>-0.77247193792661584</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="14">
         <f t="array" ref="J17:K18">LINEST(L6:L12,K6:K12,1,1)</f>
         <v>105.70336148604763</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="14">
         <v>-0.64459348319723109</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <v>12.308630492602019</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <v>0.3561792997931163</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="13">
         <v>14.784326747720636</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="13">
         <v>0.41084004206817021</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="14">
         <v>12.703203595436261</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="14">
         <v>0.35296436537289072</v>
       </c>
     </row>
@@ -2904,6 +2796,9 @@
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="1">
         <f>AVERAGE(E23:E25)</f>
         <v>112.1441682734263</v>
@@ -2915,21 +2810,20 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Data/Calibration/Plots_CAL.xlsx
+++ b/Data/Calibration/Plots_CAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26B5B59-7450-4646-A112-88F24FF74B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96E3716-8844-49ED-A724-8BFA9762DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$G$5:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,12 +82,17 @@
     <t>error</t>
   </si>
   <si>
+    <t>Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
     <r>
       <t>Slope/</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -97,18 +101,12 @@
       <t>α</t>
     </r>
   </si>
-  <si>
-    <t>Frequency (Hz)</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,47 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="CMU Bright"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="CMU Bright"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -180,215 +137,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <border>
         <top style="thin">
@@ -413,105 +173,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -525,52 +187,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CMU Bright"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1982,22 +1602,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}" name="CAL_2000" displayName="CAL_2000" ref="K5:L13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}" name="CAL_2000" displayName="CAL_2000" ref="K5:L13" tableType="queryTable" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="K5:L13" xr:uid="{995E9582-F188-42D2-8ADC-A0C2AE745F18}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8FA1CE2A-49EA-4698-9805-C5388529CAE8}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FC83C6A7-6A1D-4E2E-ABA2-0386352D12CF}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8FA1CE2A-49EA-4698-9805-C5388529CAE8}" uniqueName="1" name="V_in" queryTableFieldId="1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{FC83C6A7-6A1D-4E2E-ABA2-0386352D12CF}" uniqueName="2" name="V_out" queryTableFieldId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}" name="CAL_500" displayName="CAL_500" ref="G5:H13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}" name="CAL_500" displayName="CAL_500" ref="G5:H13" tableType="queryTable" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="G5:H13" xr:uid="{6AC24E57-337A-4795-9BE9-0C97EE22256D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{35E71496-F26A-40E6-9A1F-81502134CA94}" uniqueName="1" name="V_in" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A9EAE382-F790-42E6-9D7D-FD5A14B33D06}" uniqueName="2" name="V_out" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{35E71496-F26A-40E6-9A1F-81502134CA94}" uniqueName="1" name="V_in" queryTableFieldId="1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A9EAE382-F790-42E6-9D7D-FD5A14B33D06}" uniqueName="2" name="V_out" queryTableFieldId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2266,544 +1886,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:T26"/>
+  <dimension ref="D4:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F4" s="16" t="s">
+    <row r="4" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="16"/>
-      <c r="G5" s="3" t="s">
+    <row r="5" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="20"/>
+      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F6" s="5">
+    <row r="6" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>1.7182018457246043E-2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>1.2033725309551764</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>1.5671727327996526E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6">
         <v>1.1493968094837272</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6">
         <v>1.3987164629220922E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6">
         <v>1.047709881373095</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F7" s="5">
+    <row r="7" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>2.3065578156808694E-2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7">
         <v>1.4923256732515231</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>2.3028787664347638E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7">
         <v>1.5287404988412789</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7">
         <v>2.3391511421429985E-2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7">
         <v>1.4794918733766789</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7">
         <v>1.7182018457246043E-2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7">
         <v>1.2033725309551764</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7">
         <v>1.1033876077651942E-4</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7">
         <v>0.3799863030640504</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7">
         <v>5.2844711937590078E-3</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7">
         <v>0.71320203923988879</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F8" s="5">
+    <row r="8" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>2.5554895825959011E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>1.978069123558196</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>2.5688889474223681E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8">
         <v>2.047703760373691</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8">
         <v>2.5175564678072436E-2</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8">
         <v>1.8287561367486018</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8">
         <v>2.3065578156808694E-2</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8">
         <v>1.4923256732515231</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8">
         <v>1.5671727327996526E-2</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8">
         <v>1.1493968094837272</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8">
         <v>1.3987164629220922E-2</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8">
         <v>1.047709881373095</v>
       </c>
     </row>
-    <row r="9" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="5">
+    <row r="9" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>2.6813747210930241E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9">
         <v>2.3873357428684603</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>2.7003734053820078E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9">
         <v>2.6417694985888356</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9">
         <v>2.6062812774160601E-2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9">
         <v>2.016311598514958</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9">
         <v>2.5554895825959011E-2</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9">
         <v>1.978069123558196</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9">
         <v>2.3028787664347638E-2</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9">
         <v>1.5287404988412789</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9">
         <v>2.3391511421429985E-2</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9">
         <v>1.4794918733766789</v>
       </c>
     </row>
-    <row r="10" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F10" s="5">
+    <row r="10" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>2.7089011663223889E-2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10">
         <v>2.6361368961125544</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>3.3090749809083442E-2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10">
         <v>3.0394325452683515</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10">
         <v>2.7024287190209027E-2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10">
         <v>2.4755426707602863</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10">
         <v>2.6813747210930241E-2</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10">
         <v>2.3873357428684603</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10">
         <v>2.5688889474223681E-2</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10">
         <v>2.047703760373691</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10">
         <v>2.5175564678072436E-2</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10">
         <v>1.8287561367486018</v>
       </c>
     </row>
-    <row r="11" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F11" s="5">
+    <row r="11" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>3.3221257722986688E-2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11">
         <v>3.0313358447712067</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>3.7057903425073743E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>3.451293706319694</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11">
         <v>3.3044767925698451E-2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11">
         <v>2.9740945307753939</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11">
         <v>2.7089011663223889E-2</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11">
         <v>2.6361368961125544</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11">
         <v>2.7003734053820078E-2</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11">
         <v>2.6417694985888356</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11">
         <v>2.6062812774160601E-2</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11">
         <v>2.016311598514958</v>
       </c>
     </row>
-    <row r="12" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F12" s="5">
+    <row r="12" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>3.5821276098971538E-2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12">
         <v>3.1539573155026517</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12">
         <v>3.9064961092964923E-2</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12">
         <v>3.5118581172042758</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12">
         <v>3.3221257722986688E-2</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12">
         <v>3.0313358447712067</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12">
         <v>3.3090749809083442E-2</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12">
         <v>3.0394325452683515</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12">
         <v>2.7024287190209027E-2</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12">
         <v>2.4755426707602863</v>
       </c>
     </row>
-    <row r="13" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F13" s="5">
+    <row r="13" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>3.7135761132477414E-2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13">
         <v>3.4849867889604962</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="N13" s="11">
+      <c r="N13">
         <v>7</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13">
         <v>3.5821276098971538E-2</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13">
         <v>3.1539573155026517</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13">
         <v>3.7057903425073743E-2</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13">
         <v>3.451293706319694</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13">
         <v>3.3044767925698451E-2</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13">
         <v>2.9740945307753939</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="N14" s="11">
+    <row r="14" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14">
         <v>3.7135761132477414E-2</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14">
         <v>3.4849867889604962</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11">
+      <c r="S14">
         <v>3.9064961092964923E-2</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14">
         <v>3.5118581172042758</v>
       </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15"/>
-      <c r="D15"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="12">
+      <c r="D17">
         <f t="array" ref="D17:E18">LINEST(H6:H13,G6:G13,1,1)</f>
         <v>116.24998443933214</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17">
         <v>-0.86142985285575602</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17">
         <f t="array" ref="G17:H18">LINEST(J6:J11,I6:I11,1,1)</f>
         <v>114.47915889489911</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17">
         <v>-0.77247193792661584</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17">
         <f t="array" ref="J17:K18">LINEST(L6:L12,K6:K12,1,1)</f>
         <v>105.70336148604763</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17">
         <v>-0.64459348319723109</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="12">
+      <c r="D18">
         <v>12.308630492602019</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18">
         <v>0.3561792997931163</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18">
         <v>14.784326747720636</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18">
         <v>0.41084004206817021</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18">
         <v>12.703203595436261</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18">
         <v>0.35296436537289072</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="10">
+      <c r="D23">
         <v>500</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23">
         <f>D17</f>
         <v>116.24998443933214</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23">
         <f>D18</f>
         <v>12.308630492602019</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="10">
+      <c r="D24">
         <v>1000</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <f>G17</f>
         <v>114.47915889489911</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24">
         <f>G18</f>
         <v>14.784326747720636</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="10">
+      <c r="D25">
         <v>2000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <f>J17</f>
         <v>105.70336148604763</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25">
         <f>J18</f>
         <v>12.703203595436261</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
         <f>AVERAGE(E23:E25)</f>
         <v>112.1441682734263</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <f>AVERAGE(F23:F25)</f>
         <v>13.26538694525297</v>
       </c>
